--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1555845.851758533</v>
+        <v>-1558405.122326089</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>72.83196521698598</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962366</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>4.832425195395615</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736399</v>
+        <v>9.512185486736371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>92.75950069007692</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.8307234716369</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
         <v>219.6343371202345</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>250.5285691462084</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>97.9849709962363</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>62.06770645812481</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>77.53608687750837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>191.812884500636</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.1379555961989</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>200.4331707528085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>168.4579403081943</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507413</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.8058856274578</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>94.05355358057945</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.63824106824929</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,10 +2084,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>136.1078891637036</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>132.812187316811</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7871326503964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833863</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.96996784159726</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1321.049098521541</v>
+        <v>866.2215162936436</v>
       </c>
       <c r="C2" t="n">
-        <v>1321.049098521541</v>
+        <v>497.258999353232</v>
       </c>
       <c r="D2" t="n">
-        <v>1321.049098521542</v>
+        <v>138.9933007464815</v>
       </c>
       <c r="E2" t="n">
-        <v>935.260845923297</v>
+        <v>138.9933007464815</v>
       </c>
       <c r="F2" t="n">
-        <v>524.2749411336895</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="G2" t="n">
-        <v>109.1574891935903</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935903</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="J2" t="n">
         <v>250.5613272725627</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183944</v>
+        <v>578.7702206183947</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887445</v>
+        <v>1022.844136887444</v>
       </c>
       <c r="M2" t="n">
         <v>1548.631370064181</v>
@@ -4346,34 +4346,34 @@
         <v>2583.081262767915</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303804</v>
+        <v>2971.513095303805</v>
       </c>
       <c r="Q2" t="n">
         <v>3215.036478301001</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658116</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007346</v>
+        <v>3159.966809007347</v>
       </c>
       <c r="T2" t="n">
-        <v>3155.085571436239</v>
+        <v>2953.792066077313</v>
       </c>
       <c r="U2" t="n">
-        <v>3155.085571436239</v>
+        <v>2700.257989208342</v>
       </c>
       <c r="V2" t="n">
-        <v>2824.022684092669</v>
+        <v>2369.195101864771</v>
       </c>
       <c r="W2" t="n">
-        <v>2471.254028822555</v>
+        <v>2016.426446594657</v>
       </c>
       <c r="X2" t="n">
-        <v>2097.788270561475</v>
+        <v>1642.960688333577</v>
       </c>
       <c r="Y2" t="n">
-        <v>1707.648938585663</v>
+        <v>1252.821356357765</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>165.7683651841081</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158293</v>
+        <v>75.03392728158292</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="J3" t="n">
         <v>156.8733478056105</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794818</v>
+        <v>419.000857536035</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656272</v>
+        <v>780.5750497221807</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366257</v>
+        <v>1221.871945822811</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102522</v>
+        <v>1689.257302559075</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176382</v>
+        <v>2094.603797632936</v>
       </c>
       <c r="P3" t="n">
         <v>2400.597029664691</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.42565911316228</v>
+        <v>159.1221244566738</v>
       </c>
       <c r="C4" t="n">
-        <v>65.42565911316228</v>
+        <v>159.1221244566738</v>
       </c>
       <c r="D4" t="n">
-        <v>65.42565911316233</v>
+        <v>159.1221244566738</v>
       </c>
       <c r="E4" t="n">
-        <v>65.42565911316233</v>
+        <v>159.1221244566738</v>
       </c>
       <c r="F4" t="n">
-        <v>65.42565911316233</v>
+        <v>159.1221244566737</v>
       </c>
       <c r="G4" t="n">
-        <v>65.42565911316233</v>
+        <v>159.1221244566737</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316234</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182614</v>
+        <v>109.1495242182615</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401519</v>
+        <v>310.8381027401522</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039119</v>
+        <v>624.4564789039123</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220433</v>
+        <v>965.5122071220435</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842035</v>
+        <v>1303.893008842036</v>
       </c>
       <c r="O4" t="n">
         <v>1600.426152235784</v>
@@ -4507,31 +4507,31 @@
         <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149533</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.594412149533</v>
+        <v>1815.856307632729</v>
       </c>
       <c r="S4" t="n">
-        <v>1714.55673666522</v>
+        <v>1623.818632148416</v>
       </c>
       <c r="T4" t="n">
-        <v>1492.703870887205</v>
+        <v>1401.965766370401</v>
       </c>
       <c r="U4" t="n">
-        <v>1203.599902944582</v>
+        <v>1112.861798427778</v>
       </c>
       <c r="V4" t="n">
-        <v>948.9154147386954</v>
+        <v>858.1773102218914</v>
       </c>
       <c r="W4" t="n">
-        <v>695.8562539849495</v>
+        <v>568.7601401849308</v>
       </c>
       <c r="X4" t="n">
-        <v>467.8667030869321</v>
+        <v>340.7705892869135</v>
       </c>
       <c r="Y4" t="n">
-        <v>247.074123943402</v>
+        <v>340.7705892869135</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.03887196831</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1238.03887196831</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>879.7731733615599</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>879.7731733615599</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>468.7872685719523</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539438</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008244</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032432</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158134</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>441.1652223009123</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C7" t="n">
-        <v>441.1652223009123</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>291.0485828885766</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>291.0485828885766</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.5958171727</v>
+        <v>941.1583359835356</v>
       </c>
       <c r="X7" t="n">
-        <v>843.6062662746822</v>
+        <v>713.1687850855183</v>
       </c>
       <c r="Y7" t="n">
-        <v>622.8136871311521</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263129</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2029.572515263129</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
@@ -4881,13 +4881,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1246.26553011882</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1018.275979220802</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>797.4834000772721</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5130,16 +5130,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.7836617409691</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C13" t="n">
-        <v>816.8474788130623</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="D13" t="n">
-        <v>666.7308394007265</v>
+        <v>363.7369613277347</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8177458183334</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>371.927798320423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>204.7316990353029</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612756</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836016</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556947</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>565.7099969556948</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>417.7969033733016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>270.9069558753914</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138413</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876686</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753328</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929397</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684978</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>558.019349243338</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5923,13 +5923,13 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684978</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,10 +6394,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835333</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711975</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888044</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.724593490894</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.329899359455</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6692,40 +6692,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F34" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954153</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979287</v>
@@ -6877,10 +6877,10 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>454.6048385560546</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580116</v>
@@ -7087,19 +7087,19 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7312,31 +7312,31 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,13 +7363,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380731</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27.95355500661918</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.95355500662032</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780309</v>
+        <v>1.622913276780253</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>334.0440805247255</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>295.0640301736142</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.29451177962359</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>199.2805703053378</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002815</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>52.17319361040563</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104684</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163694</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>35.99442919038256</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.5075801958279</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>30.48882721876613</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>71.4705847116894</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>123.782806954682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.5498640939301</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>31.13893193492424</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194163</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>153.71081101978</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.45968844823144</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194207</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856559</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.6146855104976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26326,10 +26326,10 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26341,7 +26341,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074643</v>
+        <v>14479.05232074555</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125529</v>
+        <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022886</v>
+        <v>3495.241841022668</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363163</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13002.08618742622</v>
+        <v>13002.08618742619</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316945</v>
@@ -26427,34 +26427,34 @@
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491163</v>
+        <v>20377.77944491155</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491156</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.77944491158</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491155</v>
       </c>
       <c r="P4" t="n">
         <v>20377.77944491159</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1314906.760545719</v>
+        <v>-1315266.843561437</v>
       </c>
       <c r="C6" t="n">
-        <v>-70304.63810905941</v>
+        <v>-70304.63810905861</v>
       </c>
       <c r="D6" t="n">
-        <v>-55825.58578831295</v>
+        <v>-55825.58578831312</v>
       </c>
       <c r="E6" t="n">
-        <v>-297671.2568673294</v>
+        <v>-297705.9947927651</v>
       </c>
       <c r="F6" t="n">
-        <v>27741.20494002587</v>
+        <v>27706.46701459016</v>
       </c>
       <c r="G6" t="n">
-        <v>27741.20494002585</v>
+        <v>27706.4670145901</v>
       </c>
       <c r="H6" t="n">
-        <v>27741.20494002591</v>
+        <v>27706.46701459005</v>
       </c>
       <c r="I6" t="n">
-        <v>27741.20494002587</v>
+        <v>27706.46701459016</v>
       </c>
       <c r="J6" t="n">
-        <v>-186236.6844725271</v>
+        <v>-186271.4223979629</v>
       </c>
       <c r="K6" t="n">
-        <v>24245.96309900293</v>
+        <v>24211.22517356751</v>
       </c>
       <c r="L6" t="n">
-        <v>712.6964337910031</v>
+        <v>712.6964337909012</v>
       </c>
       <c r="M6" t="n">
-        <v>-64914.6135080893</v>
+        <v>-64914.61350808917</v>
       </c>
       <c r="N6" t="n">
-        <v>20140.41442742261</v>
+        <v>20140.41442742266</v>
       </c>
       <c r="O6" t="n">
-        <v>20140.41442742271</v>
+        <v>20140.4144274227</v>
       </c>
       <c r="P6" t="n">
-        <v>20140.41442742266</v>
+        <v>20140.41442742267</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.820738914529</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,16 +26817,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203978</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209616</v>
+        <v>11.08225210209548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.820738914529</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776411</v>
+        <v>13.58071648776331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145285</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776433</v>
+        <v>13.58071648776331</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.820738914529</v>
+        <v>817.8207389145292</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776411</v>
+        <v>13.58071648776331</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>284.7488706672443</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>348.8540191953286</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>67.88496114542288</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>60.32475882319196</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.5958860672817</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>50.56200120609347</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.66335656800743</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>118.0650580283967</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436991</v>
+        <v>4.336460094436993</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215285</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907822</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402219</v>
+        <v>368.0516299402221</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377399</v>
+        <v>551.6139857377401</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528661</v>
+        <v>684.3259263528663</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573099</v>
+        <v>761.4444485573102</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006291</v>
+        <v>773.7654158006294</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365712</v>
+        <v>730.6447407365715</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551579</v>
+        <v>623.5883821551581</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231329</v>
+        <v>468.2889050231332</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071779</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198304</v>
+        <v>98.81708440198308</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339794</v>
+        <v>18.98285406339795</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549592</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528247</v>
+        <v>2.320210700528248</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299649</v>
+        <v>22.4083507129965</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467868</v>
+        <v>79.88444736467871</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863113</v>
+        <v>219.2090293863114</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217038</v>
+        <v>374.6631463217039</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335564</v>
+        <v>503.7808365335566</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277052</v>
+        <v>587.8884744277054</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290548</v>
+        <v>603.448133029055</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594552</v>
+        <v>552.0371485594554</v>
       </c>
       <c r="P3" t="n">
-        <v>443.058480173679</v>
+        <v>443.0584801736792</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498864</v>
+        <v>296.1728606498865</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871836</v>
+        <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612603999</v>
+        <v>43.09689612604001</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164289</v>
+        <v>9.352077341164293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242268</v>
+        <v>0.1526454408242269</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393971</v>
+        <v>1.945186710393972</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695732</v>
+        <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621145</v>
+        <v>58.49706943621147</v>
       </c>
       <c r="J4" t="n">
         <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166813</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889365</v>
+        <v>289.1962132889366</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120295</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369249</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564134</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643762</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
         <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553254</v>
+        <v>87.46266790553258</v>
       </c>
       <c r="S4" t="n">
-        <v>33.8992993075022</v>
+        <v>33.89929930750221</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046965</v>
+        <v>8.311252308046969</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942167</v>
+        <v>0.1061010932942168</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
         <v>867.8464071162563</v>
@@ -32549,19 +32549,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>288.8958573929167</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,28 +32786,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>467.7715423565655</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>235.5705495535876</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>579.5299594447137</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>547.6926421044561</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135356</v>
+        <v>187.0057254135358</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927593</v>
+        <v>331.5241346927596</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828788</v>
+        <v>448.5595113828791</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300372</v>
+        <v>531.0982153300375</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040382</v>
+        <v>544.3523522040384</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148844</v>
+        <v>500.5465293148848</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998883</v>
+        <v>392.3553863998886</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486835</v>
+        <v>245.9832151486837</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304578</v>
+        <v>56.81462359304589</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964458</v>
+        <v>92.37140271964466</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8217073473448</v>
+        <v>264.7752623539641</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536822</v>
+        <v>365.2264567536824</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056869</v>
+        <v>445.7544405056871</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457215</v>
+        <v>472.1064209457218</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150108</v>
+        <v>409.440904115011</v>
       </c>
       <c r="P3" t="n">
-        <v>337.0376277659691</v>
+        <v>309.0840727593489</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638649</v>
+        <v>156.191086563865</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818099</v>
+        <v>44.16552030818104</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907985</v>
+        <v>203.7258368907986</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492526</v>
+        <v>316.7862385492527</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738701</v>
+        <v>344.5007355738702</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161535</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704531</v>
+        <v>299.5284276704532</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292697</v>
+        <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047717</v>
+        <v>76.72081847047723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
         <v>632.079992146269</v>
@@ -36197,19 +36197,19 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>157.5541453095834</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>325.6375084345472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>92.97430510914316</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>440.9755796648395</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>405.5586081824378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
